--- a/test/git利用ガイド.xlsx
+++ b/test/git利用ガイド.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7380"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -948,6 +948,539 @@
         <a:xfrm>
           <a:off x="2850000" y="2850000"/>
           <a:ext cx="7029450" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7248525" cy="4381500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>150000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>150000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>102375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="150000" y="150000"/>
+          <a:ext cx="7048500" cy="4410075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>300000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>509550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="300000" y="300000"/>
+          <a:ext cx="3638550" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>107100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>630975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="450000" y="450000"/>
+          <a:ext cx="6353175" cy="2914650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399975</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600000" y="600000"/>
+          <a:ext cx="5286375" cy="5095875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>64200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>64200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>149925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750000" y="750000"/>
+          <a:ext cx="4886325" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>214200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185625</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>80850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="900000" y="900000"/>
+          <a:ext cx="8886825" cy="7239000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>364200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>21300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>249900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1050000" y="1050000"/>
+          <a:ext cx="4686300" cy="4695825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>171300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>418950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1200000" y="1200000"/>
+          <a:ext cx="3333750" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>664200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>568950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>140325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1350000" y="1350000"/>
+          <a:ext cx="3333750" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>128400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>128400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>528450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>23625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1500000" y="1500000"/>
+          <a:ext cx="8629650" cy="5381625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>278400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>87900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>154575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1650000" y="1650000"/>
+          <a:ext cx="8724900" cy="4676775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -1262,12 +1795,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/test/git利用ガイド.xlsx
+++ b/test/git利用ガイド.xlsx
@@ -4,15 +4,516 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7380" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="7380"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ツールインストール" sheetId="1" r:id="rId1"/>
+    <sheet name="リポジトリのダウンロード" sheetId="4" r:id="rId2"/>
+    <sheet name="リポジトリへアップロード" sheetId="2" r:id="rId3"/>
+    <sheet name="参考(add、commit、push)" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+  <si>
+    <t>gitインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TortoiseGit-1.8.6.0-64bit.msiを実行します。</t>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NEXTボタンを選択します。</t>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Installボタンを選択します。</t>
+    <rPh sb="11" eb="13">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Installが始まります。</t>
+    <rPh sb="8" eb="9">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了画面が表示されるのでFinishボタンを</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択します。</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Finishを選択します。</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TortoiseGit-LanguagePackインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TortoiseGitはそのままでは英語ですので、</t>
+    <rPh sb="18" eb="20">
+      <t>エイゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語のランゲージパックをインストール・設定します。</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TortoiseGit-LanguagePack-1.8.6.0-64bit-ja.msi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>を実行します。</t>
+    <rPh sb="1" eb="3">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コマンドラインによるGitの操作もできますが、</t>
+    <rPh sb="14" eb="16">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GUIの方が直感的でわかりやすいので、TortoiseGitをインストールします。</t>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チョッカンテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デスクトップを右クリック→「TortoiseGit」→「設定」</t>
+    <rPh sb="7" eb="8">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git-1.8.4-preview20130916.exeを実行します。</t>
+    <rPh sb="30" eb="32">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・言語(Language)を日本語に設定します。</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>から、設定画面を表示して確認します。</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・git.exeへのパスがインストールしたGitの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　binディレクトリになっていることを確認します。</t>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここではGitHubを利用するため、2つのツールをインストールします。</t>
+    <rPh sb="11" eb="13">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Git</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TortoiseGitインストール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・TortoiseGit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubからリポジトリを取得します。</t>
+    <rPh sb="14" eb="16">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリを取得したいディレクトリ上で、</t>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gitクローン(複製)を選択します。</t>
+    <rPh sb="8" eb="10">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスの右クリックより、</t>
+    <rPh sb="4" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL、ディレクトリを確認し、OKボタンを</t>
+    <rPh sb="11" eb="13">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リポジトリのダウンロードが始まります。</t>
+    <rPh sb="13" eb="14">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード完了後、対象のディレクトリへ</t>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubにあったフォルダ・ディレクトリが</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示されます 。</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHubへのコミットは2段階あります。</t>
+    <rPh sb="14" eb="16">
+      <t>ダンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考サイト</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">push と pull </t>
+  </si>
+  <si>
+    <t>http://ja.gitready.com/beginner/2009/01/21/pushing-and-pulling.html</t>
+  </si>
+  <si>
+    <t>リポジトリへアップロード(コミットとプッシュ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリへの反映・・・コミット</t>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リモートリポジトリへの反映・・・プッシュ</t>
+    <rPh sb="11" eb="13">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規でアップしたいファイルがある場合、</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象のディレクトリへファイルを配置後に</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリック→TortoiseGit→追加を選択します。</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象をファイルを確認してOKを選択します。</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しく追加された後、コミットを選択します。</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コミット時のメッセージを記入し、</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKを選択します。</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※リモートリポジトリには、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　コミット時のメッセージが記録されます。</t>
+    <rPh sb="13" eb="15">
+      <t>キロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正しくコミットされたら、クローズを選択します。</t>
+    <rPh sb="0" eb="1">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカルリポジトリ内のディレクトで、</t>
+    <rPh sb="9" eb="10">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右クリック→TortoiseGit→</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プッシュ(リモートへ反映)を選択します。</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>任意のURLに、GitHubのURLを指定し、</t>
+    <rPh sb="0" eb="2">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKボタンを選択します。</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザID、パスワードを入力、</t>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OKを選択します。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成功することを確認、クローズを選択します。</t>
+    <rPh sb="0" eb="2">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>httpでのアクセス以外拒否される場合、</t>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョヒ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロキシーサーバーの設定を行います。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未指定の場合、22ポートを利用します。</t>
+    <rPh sb="0" eb="3">
+      <t>ミシテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22,16 +523,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,20 +578,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="1025" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -104,38 +604,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4743450" cy="3676650"/>
+          <a:off x="3114675" y="18345150"/>
+          <a:ext cx="2371725" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>150000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>150000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>102375</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>54750</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="1026" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -148,38 +672,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="150000" y="150000"/>
-          <a:ext cx="4752975" cy="3676650"/>
+          <a:off x="3105150" y="20402550"/>
+          <a:ext cx="2381250" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>300000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>128550</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>252375</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>33300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="1027" name="図 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -192,38 +740,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="300000" y="300000"/>
-          <a:ext cx="4752975" cy="3676650"/>
+          <a:off x="3105150" y="22459950"/>
+          <a:ext cx="2381250" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>392850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="1028" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -236,38 +808,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="450000" y="450000"/>
-          <a:ext cx="4743450" cy="3676650"/>
+          <a:off x="3114675" y="24517350"/>
+          <a:ext cx="2371725" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85650</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>542850</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>161850</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="1029" name="図 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -280,38 +876,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="600000" y="600000"/>
-          <a:ext cx="4743450" cy="3676650"/>
+          <a:off x="3114675" y="26450925"/>
+          <a:ext cx="2371725" cy="1838325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>64200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>64200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>7050</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>168975</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="1030" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -324,38 +944,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="750000" y="750000"/>
-          <a:ext cx="4743450" cy="3705225"/>
+          <a:off x="3114675" y="28460700"/>
+          <a:ext cx="2371725" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>442800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>166575</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="1031" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -368,38 +1012,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="900000" y="900000"/>
-          <a:ext cx="4343400" cy="3381375"/>
+          <a:off x="3105150" y="30384750"/>
+          <a:ext cx="2171700" cy="1685925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>364200</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21300</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>373725</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>135600</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="1032" name="図 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -412,38 +1080,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1050000" y="1050000"/>
-          <a:ext cx="4810125" cy="3714750"/>
+          <a:off x="3143250" y="1057275"/>
+          <a:ext cx="2390775" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>523725</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104625</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="1033" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -456,38 +1148,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1200000" y="1200000"/>
-          <a:ext cx="4810125" cy="3705225"/>
+          <a:off x="3095625" y="3086100"/>
+          <a:ext cx="2390775" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>149850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>673725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83175</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="1034" name="図 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -500,38 +1216,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1350000" y="1350000"/>
-          <a:ext cx="4810125" cy="3705225"/>
+          <a:off x="3095625" y="5143500"/>
+          <a:ext cx="2390775" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>128400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>137925</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>61725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="1035" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -544,38 +1284,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1500000" y="1500000"/>
-          <a:ext cx="4810125" cy="3705225"/>
+          <a:off x="3095625" y="7200900"/>
+          <a:ext cx="2390775" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>278400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106950</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>287925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>40275</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPr id="1036" name="図 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -588,38 +1352,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1650000" y="1650000"/>
-          <a:ext cx="4810125" cy="3705225"/>
+          <a:off x="3095625" y="9258300"/>
+          <a:ext cx="2390775" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>428400</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>85500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>437925</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>18825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPr id="1037" name="図 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -632,38 +1420,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1800000" y="1800000"/>
-          <a:ext cx="4810125" cy="3705225"/>
+          <a:off x="3095625" y="11315700"/>
+          <a:ext cx="2390775" cy="1885950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>578400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>64050</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>587925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>6900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPr id="1038" name="図 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -676,38 +1488,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1950000" y="1950000"/>
-          <a:ext cx="4810125" cy="3714750"/>
+          <a:off x="3095625" y="13363575"/>
+          <a:ext cx="2390775" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>42600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>42600</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>52125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>156900</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="1039" name="図 15"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -720,38 +1556,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2100000" y="2100000"/>
-          <a:ext cx="4810125" cy="3714750"/>
+          <a:off x="3095625" y="15420975"/>
+          <a:ext cx="2390775" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>192600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>21150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>59250</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>125925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPr id="1040" name="図 16"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -764,38 +1624,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2250000" y="2250000"/>
-          <a:ext cx="7410450" cy="4219575"/>
+          <a:off x="3114675" y="39090600"/>
+          <a:ext cx="3686175" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342600</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171150</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>523575</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85425</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPr id="1041" name="図 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -808,38 +1692,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2400000" y="2400000"/>
-          <a:ext cx="7724775" cy="6429375"/>
+          <a:off x="3105150" y="32918400"/>
+          <a:ext cx="2381250" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>492600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>149700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292575</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPr id="1042" name="図 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -852,38 +1760,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2550000" y="2550000"/>
-          <a:ext cx="5286375" cy="3733800"/>
+          <a:off x="3095625" y="34985325"/>
+          <a:ext cx="2400300" cy="1847850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>642600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>42525</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>156825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPr id="1043" name="図 21"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -896,18 +1828,42 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2700000" y="2700000"/>
-          <a:ext cx="4886325" cy="3286125"/>
+          <a:off x="3095625" y="37052250"/>
+          <a:ext cx="2390775" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -915,19 +1871,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>106800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>106800</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>278250</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>2025</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPr id="1044" name="図 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -940,18 +1896,42 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2850000" y="2850000"/>
-          <a:ext cx="7029450" cy="2466975"/>
+          <a:off x="3086100" y="41490900"/>
+          <a:ext cx="3686175" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -963,20 +1943,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2049" name="図 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -989,38 +1969,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="7248525" cy="4381500"/>
+          <a:off x="3009900" y="514350"/>
+          <a:ext cx="3848100" cy="3267075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>150000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>150000</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>340500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>102375</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="2050" name="図 18"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1033,38 +2037,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="150000" y="150000"/>
-          <a:ext cx="7048500" cy="4410075"/>
+          <a:off x="3009900" y="3943350"/>
+          <a:ext cx="2628900" cy="1895475"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>300000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>128550</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>509550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128550</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="2051" name="図 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1077,38 +2105,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="300000" y="300000"/>
-          <a:ext cx="3638550" cy="2743200"/>
+          <a:off x="3000375" y="6000750"/>
+          <a:ext cx="2438400" cy="1666875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>107100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>630975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>107100</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="2052" name="図 20"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1121,38 +2173,339 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="450000" y="450000"/>
-          <a:ext cx="6353175" cy="2914650"/>
+          <a:off x="3000375" y="7886700"/>
+          <a:ext cx="3495675" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3073" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743200" y="1200150"/>
+          <a:ext cx="3629025" cy="2190750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85650</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743200" y="3609975"/>
+          <a:ext cx="1819275" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>399975</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38025</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="3075" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743200" y="5153025"/>
+          <a:ext cx="3181350" cy="1457325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3076" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2743200" y="6838950"/>
+          <a:ext cx="2647950" cy="2543175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3077" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1165,38 +2518,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="600000" y="600000"/>
-          <a:ext cx="5286375" cy="5095875"/>
+          <a:off x="2771775" y="9601200"/>
+          <a:ext cx="2447925" cy="1647825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>64200</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>64200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>149925</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>92775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="3078" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1209,38 +2586,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="750000" y="750000"/>
-          <a:ext cx="4886325" cy="3286125"/>
+          <a:off x="2743200" y="11477625"/>
+          <a:ext cx="4448175" cy="3619500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>214200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>42750</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>185625</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>80850</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="3079" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1253,38 +2654,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="900000" y="900000"/>
-          <a:ext cx="8886825" cy="7239000"/>
+          <a:off x="2743200" y="18173700"/>
+          <a:ext cx="1666875" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>364200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>21300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>249900</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>87975</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPr id="3080" name="図 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1297,38 +2722,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1050000" y="1050000"/>
-          <a:ext cx="4686300" cy="4695825"/>
+          <a:off x="4800600" y="18173700"/>
+          <a:ext cx="1666875" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>171300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>418950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="3081" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1341,38 +2790,62 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1200000" y="1200000"/>
-          <a:ext cx="3333750" cy="1362075"/>
+          <a:off x="2743200" y="15259050"/>
+          <a:ext cx="4314825" cy="2695575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>664200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>149850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>568950</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>140325</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPr id="3082" name="図 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1385,106 +2858,115 @@
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1350000" y="1350000"/>
-          <a:ext cx="3333750" cy="1362075"/>
+          <a:off x="2743200" y="19030950"/>
+          <a:ext cx="4362450" cy="2333625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>128400</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>128400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>528450</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>23625</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPr id="4097" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1500000" y="1500000"/>
-          <a:ext cx="8629650" cy="5381625"/>
+          <a:off x="685800" y="857250"/>
+          <a:ext cx="6105525" cy="5781675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>278400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>106950</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>87900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>154575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1650000" y="1650000"/>
-          <a:ext cx="8724900" cy="4676775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1493,7 +2975,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1779,12 +3261,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A245"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1793,27 +3486,221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A112"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/test/git利用ガイド.xlsx
+++ b/test/git利用ガイド.xlsx
@@ -12,12 +12,12 @@
     <sheet name="リポジトリへアップロード" sheetId="2" r:id="rId3"/>
     <sheet name="参考(add、commit、push)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>gitインストール</t>
     <phoneticPr fontId="1"/>
@@ -511,6 +511,20 @@
     <rPh sb="13" eb="15">
       <t>リヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URLは次の通りです。</t>
+    <rPh sb="4" eb="5">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/yoskanno/CL005</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -518,7 +532,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +543,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -551,17 +573,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3522,6 +3552,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>30</v>
@@ -3544,9 +3584,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A28" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
